--- a/main/ig/PN13-FHIR-TypoComposant-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-TypoComposant-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T14:32:33+00:00</t>
+    <t>2024-09-03T11:48:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-TypoComposant-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-TypoComposant-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T11:48:25+00:00</t>
+    <t>2024-09-03T12:38:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-TypoComposant-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-TypoComposant-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T12:38:03+00:00</t>
+    <t>2024-09-18T09:33:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-TypoComposant-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-TypoComposant-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T09:33:57+00:00</t>
+    <t>2024-11-13T15:16:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/PN13-FHIR-TypoComposant-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-TypoComposant-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T15:16:58+00:00</t>
+    <t>2024-12-26T13:24:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
     <t>Target</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/Medication/CodeSystem/fr-medication-profil-list</t>
+    <t>https://hl7.fr/fhir/fr/medication/CodeSystem/fr-medication-profile-list</t>
   </si>
   <si>
     <t>Display</t>

--- a/main/ig/PN13-FHIR-TypoComposant-conceptmap.xlsx
+++ b/main/ig/PN13-FHIR-TypoComposant-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T13:24:30+00:00</t>
+    <t>2025-04-11T07:24:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
